--- a/casesData/graphFormats.xlsx
+++ b/casesData/graphFormats.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="adjacency_d" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="attributes_d" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="bipartite" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="attributes_bp" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>source</t>
   </si>
@@ -139,6 +140,45 @@
   </si>
   <si>
     <t>Leonardo DiCaprio, Tom Hardy</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>wonOscar</t>
+  </si>
+  <si>
+    <t>Robert De Niro</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Dustin Hoffman</t>
+  </si>
+  <si>
+    <t>Matt Damon</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>Morgan Freeman</t>
+  </si>
+  <si>
+    <t>Tom Hardy</t>
   </si>
 </sst>
 </file>
@@ -167,10 +207,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -240,6 +279,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -271,6 +313,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5021,7 +5067,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -5029,7 +5075,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -5037,7 +5083,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -5045,7 +5091,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -5053,7 +5099,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -5069,7 +5115,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5077,7 +5123,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -5101,7 +5147,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -5109,7 +5155,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -5125,11 +5171,125 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
